--- a/data/pca/factorExposure/factorExposure_2013-07-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-07-15.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.002100504005981417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.00142748882311413</v>
+      </c>
+      <c r="C2">
+        <v>-0.03165784047387509</v>
+      </c>
+      <c r="D2">
+        <v>0.00592456309638833</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.002624859782586033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.005995753085799925</v>
+      </c>
+      <c r="C4">
+        <v>-0.08180972282838817</v>
+      </c>
+      <c r="D4">
+        <v>0.08085218414857824</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0005407203168645479</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01334747005916725</v>
+      </c>
+      <c r="C6">
+        <v>-0.1051315745781648</v>
+      </c>
+      <c r="D6">
+        <v>0.04190651485975191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001654743355653213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.004848307758893856</v>
+      </c>
+      <c r="C7">
+        <v>-0.05156426219972121</v>
+      </c>
+      <c r="D7">
+        <v>0.03964794392795347</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.002740494672908134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005967601078912379</v>
+      </c>
+      <c r="C8">
+        <v>-0.03731411357222211</v>
+      </c>
+      <c r="D8">
+        <v>0.04141711459645484</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.005647602381871124</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.003882404946307188</v>
+      </c>
+      <c r="C9">
+        <v>-0.06583149428205635</v>
+      </c>
+      <c r="D9">
+        <v>0.06956461808551226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004381846822904537</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.006360660968039932</v>
+      </c>
+      <c r="C10">
+        <v>-0.09239480042952575</v>
+      </c>
+      <c r="D10">
+        <v>-0.2161168015399529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.005872265256375516</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.004906688076632643</v>
+      </c>
+      <c r="C11">
+        <v>-0.07756973246161371</v>
+      </c>
+      <c r="D11">
+        <v>0.06530502272391027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>0.001035957897830646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.003750888808544071</v>
+      </c>
+      <c r="C12">
+        <v>-0.06212442170944164</v>
+      </c>
+      <c r="D12">
+        <v>0.04639954982122417</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.00305872190356144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.00846672657992387</v>
+      </c>
+      <c r="C13">
+        <v>-0.06784840691831981</v>
+      </c>
+      <c r="D13">
+        <v>0.07814257517814321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.004046842634983789</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001878703420164901</v>
+      </c>
+      <c r="C14">
+        <v>-0.04726161999302254</v>
+      </c>
+      <c r="D14">
+        <v>0.01618335787652619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.002946127459414285</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.00594720185602052</v>
+      </c>
+      <c r="C15">
+        <v>-0.03716894055739364</v>
+      </c>
+      <c r="D15">
+        <v>0.04679728938382768</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.003468056190872126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.004962460681190397</v>
+      </c>
+      <c r="C16">
+        <v>-0.06336292426521661</v>
+      </c>
+      <c r="D16">
+        <v>0.05063357384490761</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.001520601211473827</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.00915847790553238</v>
+      </c>
+      <c r="C20">
+        <v>-0.06415968091540165</v>
+      </c>
+      <c r="D20">
+        <v>0.0572441106105901</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.003378924731904054</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009431447381410484</v>
+      </c>
+      <c r="C21">
+        <v>-0.02448035585985857</v>
+      </c>
+      <c r="D21">
+        <v>0.03749985157322371</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.0172062158495963</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.008028638949810703</v>
+      </c>
+      <c r="C22">
+        <v>-0.08411809570713359</v>
+      </c>
+      <c r="D22">
+        <v>0.1033439013603498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01746413595785177</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.007784980776967282</v>
+      </c>
+      <c r="C23">
+        <v>-0.08668198138759026</v>
+      </c>
+      <c r="D23">
+        <v>0.1007237548027649</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.004538911046839509</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.004425036443194113</v>
+      </c>
+      <c r="C24">
+        <v>-0.07062857316446322</v>
+      </c>
+      <c r="D24">
+        <v>0.0595049459037945</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.005576112080724823</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.002865413324821557</v>
+      </c>
+      <c r="C25">
+        <v>-0.07598929100625888</v>
+      </c>
+      <c r="D25">
+        <v>0.06254499935507692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.007031270223627129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003586827848514389</v>
+      </c>
+      <c r="C26">
+        <v>-0.04297957804346631</v>
+      </c>
+      <c r="D26">
+        <v>0.01694123939039091</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005131507028334557</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.0006212413069924329</v>
+      </c>
+      <c r="C28">
+        <v>-0.1422625544197814</v>
+      </c>
+      <c r="D28">
+        <v>-0.2979467783813197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.002054600794016842</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003521642091874822</v>
+      </c>
+      <c r="C29">
+        <v>-0.05067741422170036</v>
+      </c>
+      <c r="D29">
+        <v>0.02151850344749687</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.006209490136190631</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009058336110437288</v>
+      </c>
+      <c r="C30">
+        <v>-0.1305727774824614</v>
+      </c>
+      <c r="D30">
+        <v>0.1154446896421303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0002232700967196684</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006105308956808531</v>
+      </c>
+      <c r="C31">
+        <v>-0.0468163823175788</v>
+      </c>
+      <c r="D31">
+        <v>0.03729956155858732</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0008306807096432015</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.003645800162845539</v>
+      </c>
+      <c r="C32">
+        <v>-0.04255441813131934</v>
+      </c>
+      <c r="D32">
+        <v>0.01401562549023564</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.004495272725914761</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.007821911046568502</v>
+      </c>
+      <c r="C33">
+        <v>-0.08089973326892815</v>
+      </c>
+      <c r="D33">
+        <v>0.07628345302399156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.00591307332756186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.003642827041213536</v>
+      </c>
+      <c r="C34">
+        <v>-0.05556224355166805</v>
+      </c>
+      <c r="D34">
+        <v>0.04315820145423918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.00446538410792287</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005218464191941148</v>
+      </c>
+      <c r="C35">
+        <v>-0.04076125672838139</v>
+      </c>
+      <c r="D35">
+        <v>0.0199890392394569</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.005759871766258889</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001377358000738956</v>
+      </c>
+      <c r="C36">
+        <v>-0.02686304225841863</v>
+      </c>
+      <c r="D36">
+        <v>0.01686420535880929</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002182945203920011</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009055289993666775</v>
+      </c>
+      <c r="C38">
+        <v>-0.03462230777083784</v>
+      </c>
+      <c r="D38">
+        <v>0.03262700741348586</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01563537438600242</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.001382419067036434</v>
+      </c>
+      <c r="C39">
+        <v>-0.1092231878055024</v>
+      </c>
+      <c r="D39">
+        <v>0.08949682032009927</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.008107859157656274</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002478531119321551</v>
+      </c>
+      <c r="C40">
+        <v>-0.08350794557603285</v>
+      </c>
+      <c r="D40">
+        <v>0.03768591287503454</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>8.019269795867722e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007517418857860405</v>
+      </c>
+      <c r="C41">
+        <v>-0.04190630922827848</v>
+      </c>
+      <c r="D41">
+        <v>0.03410216383934433</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002083761594337966</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00282164356331124</v>
+      </c>
+      <c r="C43">
+        <v>-0.05228954368243593</v>
+      </c>
+      <c r="D43">
+        <v>0.02710149091229808</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.005009826597959302</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003423968925065215</v>
+      </c>
+      <c r="C44">
+        <v>-0.1037507862724331</v>
+      </c>
+      <c r="D44">
+        <v>0.08593274897356395</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.00258262393983031</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002612986794685334</v>
+      </c>
+      <c r="C46">
+        <v>-0.03427700444901102</v>
+      </c>
+      <c r="D46">
+        <v>0.03421510399680303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.00237266347057701</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.003043769940896981</v>
+      </c>
+      <c r="C47">
+        <v>-0.041097084724939</v>
+      </c>
+      <c r="D47">
+        <v>0.0296102419198997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003436890561320448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006537896495306623</v>
+      </c>
+      <c r="C48">
+        <v>-0.032217876480958</v>
+      </c>
+      <c r="D48">
+        <v>0.02234452062236861</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01573753219654759</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01385202030142318</v>
+      </c>
+      <c r="C49">
+        <v>-0.1620578589255291</v>
+      </c>
+      <c r="D49">
+        <v>0.04822951521517784</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.0002759565414621619</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003903288221880712</v>
+      </c>
+      <c r="C50">
+        <v>-0.04291595664908834</v>
+      </c>
+      <c r="D50">
+        <v>0.0385207440740379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.002994516406305859</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004128101401817581</v>
+      </c>
+      <c r="C51">
+        <v>-0.01956256047472388</v>
+      </c>
+      <c r="D51">
+        <v>0.03634024018576609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0001640994311361915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.01980103477222993</v>
+      </c>
+      <c r="C53">
+        <v>-0.1620626951102827</v>
+      </c>
+      <c r="D53">
+        <v>0.06056853380300699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.001495879068078404</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008509114016734804</v>
+      </c>
+      <c r="C54">
+        <v>-0.05429872669592891</v>
+      </c>
+      <c r="D54">
+        <v>0.04084769271752169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.00564817392563124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009460098800925703</v>
+      </c>
+      <c r="C55">
+        <v>-0.102745471592989</v>
+      </c>
+      <c r="D55">
+        <v>0.05888313310159934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.002157765385706425</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.01859626715638406</v>
+      </c>
+      <c r="C56">
+        <v>-0.1661638633275959</v>
+      </c>
+      <c r="D56">
+        <v>0.06330952549692963</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.009252704375547477</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01938508988708918</v>
+      </c>
+      <c r="C58">
+        <v>-0.09861227353264912</v>
+      </c>
+      <c r="D58">
+        <v>0.08400468409000443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.009149599349838191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.009346490781462271</v>
+      </c>
+      <c r="C59">
+        <v>-0.1817705919660313</v>
+      </c>
+      <c r="D59">
+        <v>-0.2612477316339285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.00872113249234795</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02281522508737387</v>
+      </c>
+      <c r="C60">
+        <v>-0.2227973464129535</v>
+      </c>
+      <c r="D60">
+        <v>0.031741220051969</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01771723670415065</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.002201487180648395</v>
+      </c>
+      <c r="C61">
+        <v>-0.09251875308001421</v>
+      </c>
+      <c r="D61">
+        <v>0.06627509682983636</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1897754565688116</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1449169457048543</v>
+      </c>
+      <c r="C62">
+        <v>-0.06711698501883689</v>
+      </c>
+      <c r="D62">
+        <v>0.057558051182471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.003108341480481616</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.0063729786138326</v>
+      </c>
+      <c r="C63">
+        <v>-0.06032311952501603</v>
+      </c>
+      <c r="D63">
+        <v>0.01931749726432027</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.00667607968169655</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01542716760205613</v>
+      </c>
+      <c r="C64">
+        <v>-0.09589532253175106</v>
+      </c>
+      <c r="D64">
+        <v>0.07299797727718023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.0001848639860264614</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.0171507766655815</v>
+      </c>
+      <c r="C65">
+        <v>-0.1093725123377769</v>
+      </c>
+      <c r="D65">
+        <v>0.04143193494419791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.01208069291642208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01190734577048959</v>
+      </c>
+      <c r="C66">
+        <v>-0.1447330823972363</v>
+      </c>
+      <c r="D66">
+        <v>0.1286567555856639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.001820308453069141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0149649895767503</v>
+      </c>
+      <c r="C67">
+        <v>-0.06314973652010522</v>
+      </c>
+      <c r="D67">
+        <v>0.04455588897017897</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.008972218573037526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.00175298594262237</v>
+      </c>
+      <c r="C68">
+        <v>-0.1259194568333814</v>
+      </c>
+      <c r="D68">
+        <v>-0.2670884982359533</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.003379657601250084</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005114471151272276</v>
+      </c>
+      <c r="C69">
+        <v>-0.04545461727400078</v>
+      </c>
+      <c r="D69">
+        <v>0.04466715062034043</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001261612591246365</v>
+      </c>
+      <c r="C70">
+        <v>-0.001642761590170701</v>
+      </c>
+      <c r="D70">
+        <v>0.001791018797865135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.003961442427133539</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.006650136617891262</v>
+      </c>
+      <c r="C71">
+        <v>-0.1292993365949846</v>
+      </c>
+      <c r="D71">
+        <v>-0.2790060541508713</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.008124489320766827</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.0150983787130258</v>
+      </c>
+      <c r="C72">
+        <v>-0.145893620316229</v>
+      </c>
+      <c r="D72">
+        <v>0.04207468104982623</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01175642715604554</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03076431559029976</v>
+      </c>
+      <c r="C73">
+        <v>-0.2825013060165519</v>
+      </c>
+      <c r="D73">
+        <v>0.05645312792913833</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.006078397799303653</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.001693895694773362</v>
+      </c>
+      <c r="C74">
+        <v>-0.1017778149044458</v>
+      </c>
+      <c r="D74">
+        <v>0.04817415895554689</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.006784618132737666</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01025285182040821</v>
+      </c>
+      <c r="C75">
+        <v>-0.129632250625044</v>
+      </c>
+      <c r="D75">
+        <v>0.0510720785424974</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.01045769676415084</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02086801853797261</v>
+      </c>
+      <c r="C76">
+        <v>-0.1402754593191736</v>
+      </c>
+      <c r="D76">
+        <v>0.07840740668351223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.008531248238908561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02150205969475627</v>
+      </c>
+      <c r="C77">
+        <v>-0.1156484777694956</v>
+      </c>
+      <c r="D77">
+        <v>0.1239594005264869</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.0002996338364389352</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01448454404524482</v>
+      </c>
+      <c r="C78">
+        <v>-0.08866919751311136</v>
+      </c>
+      <c r="D78">
+        <v>0.06841809333205449</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02660468304182843</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03614920971234785</v>
+      </c>
+      <c r="C79">
+        <v>-0.149568763997334</v>
+      </c>
+      <c r="D79">
+        <v>0.04923944500927427</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.003107362175621874</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01085671710553691</v>
+      </c>
+      <c r="C80">
+        <v>-0.04386337474456316</v>
+      </c>
+      <c r="D80">
+        <v>0.02901810868640317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0002919567670719844</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01424736183903784</v>
+      </c>
+      <c r="C81">
+        <v>-0.116647270446007</v>
+      </c>
+      <c r="D81">
+        <v>0.06947014637347992</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.007171098196374577</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.01803541404677643</v>
+      </c>
+      <c r="C82">
+        <v>-0.1350162267685734</v>
+      </c>
+      <c r="D82">
+        <v>0.05530094030929157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.007742796693862371</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.009621360731933641</v>
+      </c>
+      <c r="C83">
+        <v>-0.04946432661339293</v>
+      </c>
+      <c r="D83">
+        <v>0.05129309205129137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01377398156995279</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01235897374388372</v>
+      </c>
+      <c r="C84">
+        <v>-0.03105730951576431</v>
+      </c>
+      <c r="D84">
+        <v>0.003569742109991464</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01665658707434204</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02840540112475333</v>
+      </c>
+      <c r="C85">
+        <v>-0.1267389790981557</v>
+      </c>
+      <c r="D85">
+        <v>0.06391903140488239</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.003649536755242446</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.004912155600945625</v>
+      </c>
+      <c r="C86">
+        <v>-0.04730119819592768</v>
+      </c>
+      <c r="D86">
+        <v>0.02284476449824224</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.007380199424662899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.009441663028381635</v>
+      </c>
+      <c r="C87">
+        <v>-0.1194707993274473</v>
+      </c>
+      <c r="D87">
+        <v>0.08685573871921488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01482757946034068</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00313106864896438</v>
+      </c>
+      <c r="C88">
+        <v>-0.07333035173802073</v>
+      </c>
+      <c r="D88">
+        <v>0.01815875425986333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01480212817851088</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001514960360849367</v>
+      </c>
+      <c r="C89">
+        <v>-0.1796915857961607</v>
+      </c>
+      <c r="D89">
+        <v>-0.3244210044207508</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.002005030433956604</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007960449902282242</v>
+      </c>
+      <c r="C90">
+        <v>-0.1613445300248701</v>
+      </c>
+      <c r="D90">
+        <v>-0.313335615145634</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>2.761432880731791e-05</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.009778589208253165</v>
+      </c>
+      <c r="C91">
+        <v>-0.1021156121390739</v>
+      </c>
+      <c r="D91">
+        <v>0.02448856998320822</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.01848390326159557</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001560881626486651</v>
+      </c>
+      <c r="C92">
+        <v>-0.1688861715665164</v>
+      </c>
+      <c r="D92">
+        <v>-0.3131656160663897</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.00234511145598803</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005485679866276945</v>
+      </c>
+      <c r="C93">
+        <v>-0.1437965176646343</v>
+      </c>
+      <c r="D93">
+        <v>-0.3056523663769825</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.001869922680347542</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02172620817259183</v>
+      </c>
+      <c r="C94">
+        <v>-0.1552342584838211</v>
+      </c>
+      <c r="D94">
+        <v>0.04141454661484353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.006846384654014953</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01645534793038241</v>
+      </c>
+      <c r="C95">
+        <v>-0.119818303481231</v>
+      </c>
+      <c r="D95">
+        <v>0.0681479299897239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.003784271021117593</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03226254226164282</v>
+      </c>
+      <c r="C97">
+        <v>-0.1634849691435074</v>
+      </c>
+      <c r="D97">
+        <v>0.05739540779961002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.008777479828897513</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03573508274375792</v>
+      </c>
+      <c r="C98">
+        <v>-0.2569019395421154</v>
+      </c>
+      <c r="D98">
+        <v>0.05192933820350667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9790978424049742</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9827364435306113</v>
+      </c>
+      <c r="C99">
+        <v>0.1053353050425814</v>
+      </c>
+      <c r="D99">
+        <v>-0.03765074067374813</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.002009174229060512</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003565717511165174</v>
+      </c>
+      <c r="C101">
+        <v>-0.05075610878374209</v>
+      </c>
+      <c r="D101">
+        <v>0.02156220367456692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
